--- a/modelos/anexo_f_modelo.xlsx
+++ b/modelos/anexo_f_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpflenergia.sharepoint.com/sites/EquipeREDN-HomeOffice/Documentos Compartilhados/PQ + MMGD/05. Regulatório/REN 1098 (CP003-24)/Novos Procedimentos/Declarações e Afins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDD2D63-0720-40F0-BE23-13B52FE17621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9063E8-2518-4511-97D5-B95B6AB27C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBFA58E4-C8B1-4D57-BAF8-E92D6CEF9759}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="202">
   <si>
     <r>
       <t xml:space="preserve">ANEXO F – Dados para Registro de Micro e Minigeradores Distribuídos Participantes do Sistema de Compensação de Energia Elétrica
@@ -151,22 +151,43 @@
     <t>2.1) Padrão de Entrada (categoria - GED 13/RIC BT):</t>
   </si>
   <si>
+    <t>#PADRAO</t>
+  </si>
+  <si>
     <t>2.2) Tipo de Atendimento (aéreo/subterrâneo):</t>
   </si>
   <si>
+    <t>#TIPO</t>
+  </si>
+  <si>
     <t>2.3) Número de Fases da Instalação (Monofásico/Bifásico/Trifásico):</t>
   </si>
   <si>
+    <t>#FASE</t>
+  </si>
+  <si>
     <t>2.4) Cabos (seção transversal):</t>
   </si>
   <si>
+    <t>#CABO</t>
+  </si>
+  <si>
     <t>2.5) Caixa de Medição ou Tipo de Poste Padrão (Caixa tipo, segundo GED 14945):</t>
   </si>
   <si>
+    <t>#CAIXA</t>
+  </si>
+  <si>
     <t>2.6) Demanda Disponibilizada (se MT) ou Carga Instalada (se BT):</t>
   </si>
   <si>
+    <t>#DEMANDA</t>
+  </si>
+  <si>
     <t>2.7) Disjuntor (A):</t>
+  </si>
+  <si>
+    <t>#DJ</t>
   </si>
   <si>
     <t>2b) Dados Técnicos da Unidade Consumidora (se Minigeração)</t>
@@ -872,9 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -884,55 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -941,6 +911,57 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1296,253 +1317,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="201.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8">
       <c r="C2" s="1"/>
-      <c r="F2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="20" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="18"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="30">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="18"/>
+      <c r="B21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="30">
       <c r="A22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="7"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1551,249 +1578,257 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="45">
       <c r="A25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="30">
       <c r="A26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="A29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="18"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:10" ht="30">
       <c r="A31" s="12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="18"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="30">
       <c r="A32" s="12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33" s="12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34" s="12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="18"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:8" ht="30">
       <c r="A36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:8" ht="30">
       <c r="A37" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="30">
       <c r="A38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:8" ht="30">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="30">
       <c r="A44" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="9"/>
@@ -1801,130 +1836,130 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="18"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:8" ht="30">
       <c r="A48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="19" t="s">
-        <v>64</v>
+      <c r="A49" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="18"/>
+      <c r="D49" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="18"/>
+      <c r="A50" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="18"/>
+      <c r="A51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="18"/>
+      <c r="A52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="18"/>
+      <c r="A53" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="23"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="17" t="s">
-        <v>71</v>
+      <c r="A54" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="17" t="s">
-        <v>71</v>
+      <c r="E55" s="23"/>
+      <c r="F55" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="17" t="s">
-        <v>71</v>
+      <c r="A56" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="45">
       <c r="A57" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="17" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1933,985 +1968,985 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="18"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="30">
       <c r="A59" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="18"/>
+      <c r="A60" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="18"/>
+      <c r="A61" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="18"/>
+      <c r="A62" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" ht="30">
       <c r="A63" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="18"/>
+      <c r="A64" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
+      <c r="A65" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="A66" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
     </row>
     <row r="67" spans="1:5" ht="45">
       <c r="A67" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
+        <v>97</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
     </row>
     <row r="68" spans="1:5" ht="45">
       <c r="A68" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69" spans="1:5" ht="30">
       <c r="A69" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+        <v>101</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="27"/>
     </row>
     <row r="71" spans="1:5" ht="30">
       <c r="A71" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
+        <v>106</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
     </row>
     <row r="75" spans="1:5" ht="30">
       <c r="A75" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
     </row>
     <row r="76" spans="1:5" ht="30">
       <c r="A76" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
+        <v>108</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
     </row>
     <row r="77" spans="1:5" ht="45">
       <c r="A77" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
+        <v>109</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
     </row>
     <row r="78" spans="1:5" ht="30">
       <c r="A78" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+        <v>110</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79" spans="1:5" ht="30">
       <c r="A79" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
+        <v>112</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
     </row>
     <row r="81" spans="1:5" ht="30">
       <c r="A81" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="31"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="33"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="27"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="24"/>
     </row>
     <row r="84" spans="1:5" ht="30">
       <c r="A84" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
+        <v>115</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+        <v>116</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
+        <v>117</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
+        <v>118</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
     </row>
     <row r="88" spans="1:5" ht="45">
       <c r="A88" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
     </row>
     <row r="89" spans="1:5" ht="45">
       <c r="A89" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
+        <v>120</v>
+      </c>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
     </row>
     <row r="90" spans="1:5" ht="30">
       <c r="A90" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
+        <v>121</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
+        <v>122</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
     </row>
     <row r="92" spans="1:5" ht="30">
       <c r="A92" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+        <v>124</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
     </row>
     <row r="94" spans="1:5" ht="30">
       <c r="A94" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
+        <v>125</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="1:5" ht="30">
       <c r="A95" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
+        <v>126</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
     </row>
     <row r="96" spans="1:5" ht="30">
       <c r="A96" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
+        <v>127</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
     </row>
     <row r="97" spans="1:5" ht="30">
       <c r="A97" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
+        <v>128</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
+        <v>129</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
     </row>
     <row r="99" spans="1:5" ht="30">
       <c r="A99" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="31"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="33"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="27"/>
     </row>
     <row r="101" spans="1:5" ht="45">
       <c r="A101" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="24"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E102" s="22"/>
+        <v>132</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="23"/>
     </row>
     <row r="103" spans="1:5" ht="30">
       <c r="A103" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103" s="22"/>
+        <v>134</v>
+      </c>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="23"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="22">
+        <v>135</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="23">
         <v>1</v>
       </c>
-      <c r="E104" s="22"/>
+      <c r="E104" s="23"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E105" s="22"/>
+        <v>136</v>
+      </c>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" s="23"/>
     </row>
     <row r="106" spans="1:5" ht="30">
       <c r="A106" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="22"/>
+        <v>138</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" s="23"/>
     </row>
     <row r="107" spans="1:5" ht="30">
       <c r="A107" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E107" s="22"/>
+        <v>140</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" s="23"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
+        <v>141</v>
+      </c>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
+        <v>142</v>
+      </c>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
     </row>
     <row r="110" spans="1:5" ht="30">
       <c r="A110" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
+        <v>143</v>
+      </c>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
     </row>
     <row r="112" spans="1:5" ht="30">
       <c r="A112" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
     </row>
     <row r="113" spans="1:5" ht="30">
       <c r="A113" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
     </row>
     <row r="114" spans="1:5" ht="30">
       <c r="A114" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
+        <v>147</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
     </row>
     <row r="115" spans="1:5" ht="30">
       <c r="A115" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
     </row>
     <row r="116" spans="1:5" ht="30">
       <c r="A116" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+        <v>149</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
     </row>
     <row r="117" spans="1:5" ht="30">
       <c r="A117" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
+        <v>150</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
     </row>
     <row r="118" spans="1:5" ht="30">
       <c r="A118" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
+        <v>151</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
     </row>
     <row r="119" spans="1:5" ht="30">
       <c r="A119" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
     </row>
     <row r="120" spans="1:5" ht="30">
       <c r="A120" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
     </row>
     <row r="121" spans="1:5" ht="30">
       <c r="A121" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
+        <v>154</v>
+      </c>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
     </row>
     <row r="122" spans="1:5" ht="30">
       <c r="A122" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E122" s="22"/>
+        <v>155</v>
+      </c>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E122" s="23"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E123" s="22"/>
+        <v>157</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E123" s="23"/>
     </row>
     <row r="124" spans="1:5" ht="30">
       <c r="A124" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E124" s="22"/>
+        <v>158</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" s="23"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="31"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="33"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="27"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
+      <c r="A126" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
+      <c r="A127" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
+      <c r="A128" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
+      <c r="A129" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
+      <c r="A130" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
+      <c r="A131" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
+      <c r="A132" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
+      <c r="A133" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
+      <c r="A134" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
+      <c r="A135" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
+      <c r="A136" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
+      <c r="A137" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
+      <c r="A138" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
+      <c r="A139" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
+      <c r="A140" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
+      <c r="A141" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
+      <c r="A142" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
+      <c r="A143" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
+      <c r="A144" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
+      <c r="A145" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
+      <c r="A146" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
+      <c r="A147" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
+      <c r="A148" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
+      <c r="A149" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
+      <c r="A150" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
+      <c r="A151" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
+      <c r="A152" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
+      <c r="A153" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
+      <c r="A154" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
+      <c r="A155" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
+      <c r="A156" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B157" s="25"/>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
+      <c r="A157" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" s="38"/>
+      <c r="C157" s="38"/>
+      <c r="D157" s="38"/>
+      <c r="E157" s="38"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B158" s="25"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
+      <c r="A158" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B158" s="38"/>
+      <c r="C158" s="38"/>
+      <c r="D158" s="38"/>
+      <c r="E158" s="38"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B159" s="25"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
+      <c r="A159" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="38"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
+      <c r="A160" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" s="38"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="38"/>
+      <c r="E160" s="38"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RiMd7wkIqV2kKc8BpI75WcH1nWOoXpFZuiKwZG0pksFxhmRb/TowVssgMWoEcciBiOD46ygwxtJTs3eoppNgXA==" saltValue="0cHIyALx0C5q/DQCNrXsAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -2926,143 +2961,6 @@
     <protectedRange sqref="B102:E124" name="Intervalo8"/>
   </protectedRanges>
   <mergeCells count="161">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="A139:E139"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
@@ -3087,6 +2985,143 @@
     <mergeCell ref="A151:E151"/>
     <mergeCell ref="A140:E140"/>
     <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter>
@@ -3131,38 +3166,38 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3172,6 +3207,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="256d38a0-9fdc-4bc3-a3e0-3184db9362f6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3daf65dc-ac46-43d5-9a80-cc5cf9711c59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006FD02D6FD13A4D4CB93142D65A60B664" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c8cd299d605ca12feb81ac0af288f454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="256d38a0-9fdc-4bc3-a3e0-3184db9362f6" xmlns:ns3="3daf65dc-ac46-43d5-9a80-cc5cf9711c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02ed01b79239b02d2036f826aba09ddf" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3423,30 +3480,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="256d38a0-9fdc-4bc3-a3e0-3184db9362f6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3daf65dc-ac46-43d5-9a80-cc5cf9711c59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E61BE9B-E875-4AB6-BB6C-B40A0E7380E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{735F70BC-9574-4157-8547-F5E0D5174D8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3454,5 +3489,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{735F70BC-9574-4157-8547-F5E0D5174D8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E61BE9B-E875-4AB6-BB6C-B40A0E7380E0}"/>
 </file>
--- a/modelos/anexo_f_modelo.xlsx
+++ b/modelos/anexo_f_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpflenergia.sharepoint.com/sites/EquipeREDN-HomeOffice/Documentos Compartilhados/PQ + MMGD/05. Regulatório/REN 1098 (CP003-24)/Novos Procedimentos/Declarações e Afins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9063E8-2518-4511-97D5-B95B6AB27C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A55FBF-3F51-4013-A67A-B10469DE1702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBFA58E4-C8B1-4D57-BAF8-E92D6CEF9759}"/>
   </bookViews>
@@ -1302,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3207,28 +3207,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="256d38a0-9fdc-4bc3-a3e0-3184db9362f6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3daf65dc-ac46-43d5-9a80-cc5cf9711c59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006FD02D6FD13A4D4CB93142D65A60B664" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c8cd299d605ca12feb81ac0af288f454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="256d38a0-9fdc-4bc3-a3e0-3184db9362f6" xmlns:ns3="3daf65dc-ac46-43d5-9a80-cc5cf9711c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02ed01b79239b02d2036f826aba09ddf" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3480,14 +3458,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="256d38a0-9fdc-4bc3-a3e0-3184db9362f6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3daf65dc-ac46-43d5-9a80-cc5cf9711c59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E61BE9B-E875-4AB6-BB6C-B40A0E7380E0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{735F70BC-9574-4157-8547-F5E0D5174D8B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D8757B-CA1B-447A-97ED-C94EB5B4A78A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E61BE9B-E875-4AB6-BB6C-B40A0E7380E0}"/>
 </file>